--- a/biology/Botanique/Jules_Eugène_Vidal/Jules_Eugène_Vidal.xlsx
+++ b/biology/Botanique/Jules_Eugène_Vidal/Jules_Eugène_Vidal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jules_Eug%C3%A8ne_Vidal</t>
+          <t>Jules_Eugène_Vidal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jules Eugène Vidal, ou Jules-Eugène Vidal, né le 9 juin 1914 à Anglès et mort le 9 mars 2020 à Saint-Ouen-sur-Seine[1], est un botaniste français[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Eugène Vidal, ou Jules-Eugène Vidal, né le 9 juin 1914 à Anglès et mort le 9 mars 2020 à Saint-Ouen-sur-Seine, est un botaniste français,.
 Il s'est spécialisé dans l'étude de la flore de l'Asie : Cambodge, Laos, Vietnam, et conjointement avec son épouse, la biologiste Yvette Vidal, dans l'exploration de ces zones tropicales.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jules_Eug%C3%A8ne_Vidal</t>
+          <t>Jules_Eugène_Vidal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jules Eugène Vidal. 1997a. Paysages végétaux et plantes de la péninsule indochinoise. Économie et développement. Éditeur : Karthala, 245 p.  (ISBN 2865377792)
 bouakhaykhone Svengsuksa, jules eugène Vidal, philippe Morat. 1997b. Les Diptérocarpacées du Laos : adaptation de Flore du Cambodge, du Laos, et du Vietnam. Éditeur : Université nationale du Laos, 58 p.
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jules_Eug%C3%A8ne_Vidal</t>
+          <t>Jules_Eugène_Vidal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,9 +574,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(Arecaceae) Rhapis vidalii Aver., T.H.Nguyên &amp; P.K.Lôc[4]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Arecaceae) Rhapis vidalii Aver., T.H.Nguyên &amp; P.K.Lôc</t>
         </is>
       </c>
     </row>
